--- a/teaching/traditional_assets/database/data/sri_lanka/sri_lanka_insurance_general.xlsx
+++ b/teaching/traditional_assets/database/data/sri_lanka/sri_lanka_insurance_general.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ7"/>
+  <dimension ref="A1:AQ6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,46 +591,46 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.117</v>
+        <v>0.12825</v>
       </c>
       <c r="E2">
-        <v>0.221</v>
+        <v>0.175</v>
       </c>
       <c r="G2">
-        <v>0.1781723689909052</v>
+        <v>0.1910355352081971</v>
       </c>
       <c r="H2">
-        <v>0.1781723689909052</v>
+        <v>0.1910355352081971</v>
       </c>
       <c r="I2">
-        <v>0.1991737453497078</v>
+        <v>0.1594419010246348</v>
       </c>
       <c r="J2">
-        <v>0.1568068205566007</v>
+        <v>0.117971952515715</v>
       </c>
       <c r="K2">
-        <v>83.047</v>
+        <v>58.38099999999999</v>
       </c>
       <c r="L2">
-        <v>0.1798332611520138</v>
+        <v>0.1272749073468498</v>
       </c>
       <c r="M2">
-        <v>10.047</v>
+        <v>7.382</v>
       </c>
       <c r="N2">
-        <v>0.0245012924937814</v>
+        <v>0.01953943885653785</v>
       </c>
       <c r="O2">
-        <v>0.1209796862017894</v>
+        <v>0.1264452475976773</v>
       </c>
       <c r="P2">
-        <v>10.047</v>
+        <v>7.382</v>
       </c>
       <c r="Q2">
-        <v>0.0245012924937814</v>
+        <v>0.01953943885653785</v>
       </c>
       <c r="R2">
-        <v>0.1209796862017894</v>
+        <v>0.1264452475976773</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -639,73 +639,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>13.11</v>
+        <v>13.789</v>
       </c>
       <c r="V2">
-        <v>0.0319709310832561</v>
+        <v>0.03649814716781366</v>
       </c>
       <c r="W2">
-        <v>0.228463476070529</v>
+        <v>0.158333622604832</v>
       </c>
       <c r="X2">
-        <v>0.08043310118277865</v>
+        <v>0.09141942577696022</v>
       </c>
       <c r="Y2">
-        <v>0.1480303748877503</v>
+        <v>0.06691419682787175</v>
       </c>
       <c r="Z2">
-        <v>1.235827251858338</v>
+        <v>1.244762607732888</v>
       </c>
       <c r="AA2">
-        <v>0.1927662269890644</v>
+        <v>0.16441082774004</v>
       </c>
       <c r="AB2">
-        <v>0.07805910705718093</v>
+        <v>0.08995604703923216</v>
       </c>
       <c r="AC2">
-        <v>0.1154717045659457</v>
+        <v>0.07498937632819515</v>
       </c>
       <c r="AD2">
-        <v>23.329</v>
+        <v>17.76</v>
       </c>
       <c r="AE2">
-        <v>7.582821987524717</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>30.91182198752472</v>
+        <v>17.76</v>
       </c>
       <c r="AG2">
-        <v>17.80182198752472</v>
+        <v>3.971</v>
       </c>
       <c r="AH2">
-        <v>0.07009931348493108</v>
+        <v>0.0448983719284053</v>
       </c>
       <c r="AI2">
-        <v>0.06763899859984046</v>
+        <v>0.03994961310059385</v>
       </c>
       <c r="AJ2">
-        <v>0.04160647450345259</v>
+        <v>0.01040152342634721</v>
       </c>
       <c r="AK2">
-        <v>0.04010306132067423</v>
+        <v>0.009218354996041981</v>
       </c>
       <c r="AL2">
-        <v>2.413</v>
+        <v>2.862</v>
       </c>
       <c r="AM2">
-        <v>2.413</v>
+        <v>2.862</v>
       </c>
       <c r="AN2">
-        <v>0.2336474806453875</v>
+        <v>0.224098118635727</v>
       </c>
       <c r="AO2">
-        <v>37.5428926647327</v>
+        <v>25.55415793151642</v>
       </c>
       <c r="AP2">
-        <v>0.1782910051130702</v>
+        <v>0.05010662326027432</v>
       </c>
       <c r="AQ2">
-        <v>37.5428926647327</v>
+        <v>25.55415793151642</v>
       </c>
     </row>
     <row r="3">
@@ -725,46 +725,46 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.171</v>
+        <v>0.157</v>
       </c>
       <c r="E3">
-        <v>0.408</v>
+        <v>0.429</v>
       </c>
       <c r="G3">
-        <v>0.1506944444444444</v>
+        <v>0.1392282958199357</v>
       </c>
       <c r="H3">
-        <v>0.1506944444444444</v>
+        <v>0.1392282958199357</v>
       </c>
       <c r="I3">
-        <v>0.1129493495429103</v>
+        <v>0.1559485530546623</v>
       </c>
       <c r="J3">
-        <v>0.1129493495429103</v>
+        <v>0.112384663777436</v>
       </c>
       <c r="K3">
-        <v>11.9</v>
+        <v>6.64</v>
       </c>
       <c r="L3">
-        <v>0.2065972222222222</v>
+        <v>0.1067524115755627</v>
       </c>
       <c r="M3">
-        <v>1.76</v>
+        <v>1.9</v>
       </c>
       <c r="N3">
-        <v>0.04631578947368421</v>
+        <v>0.04042553191489361</v>
       </c>
       <c r="O3">
-        <v>0.1478991596638655</v>
+        <v>0.286144578313253</v>
       </c>
       <c r="P3">
-        <v>1.76</v>
+        <v>1.9</v>
       </c>
       <c r="Q3">
-        <v>0.04631578947368421</v>
+        <v>0.04042553191489361</v>
       </c>
       <c r="R3">
-        <v>0.1478991596638655</v>
+        <v>0.286144578313253</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -773,73 +773,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>3.28</v>
+        <v>3.15</v>
       </c>
       <c r="V3">
-        <v>0.08631578947368421</v>
+        <v>0.06702127659574468</v>
       </c>
       <c r="W3">
-        <v>0.4817813765182187</v>
+        <v>0.1964497041420118</v>
       </c>
       <c r="X3">
-        <v>0.08099202759516637</v>
+        <v>0.09150547839753662</v>
       </c>
       <c r="Y3">
-        <v>0.4007893489230523</v>
+        <v>0.1049442257444752</v>
       </c>
       <c r="Z3">
-        <v>2.394255051679326</v>
+        <v>1.857825567502987</v>
       </c>
       <c r="AA3">
-        <v>0.2704295507270069</v>
+        <v>0.2087911017609475</v>
       </c>
       <c r="AB3">
-        <v>0.07805910705718093</v>
+        <v>0.08999707598343056</v>
       </c>
       <c r="AC3">
-        <v>0.192370443669826</v>
+        <v>0.118794025777517</v>
       </c>
       <c r="AD3">
-        <v>2.96</v>
+        <v>2.49</v>
       </c>
       <c r="AE3">
-        <v>1.565587331641832</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>4.525587331641832</v>
+        <v>2.49</v>
       </c>
       <c r="AG3">
-        <v>1.245587331641832</v>
+        <v>-0.6599999999999997</v>
       </c>
       <c r="AH3">
-        <v>0.1064203369220605</v>
+        <v>0.0503131945847646</v>
       </c>
       <c r="AI3">
-        <v>0.1180826608730268</v>
+        <v>0.05546892403653375</v>
       </c>
       <c r="AJ3">
-        <v>0.03173827725181157</v>
+        <v>-0.01424255502805351</v>
       </c>
       <c r="AK3">
-        <v>0.03554191630046449</v>
+        <v>-0.01581217057977958</v>
       </c>
       <c r="AL3">
-        <v>0.258</v>
+        <v>0.506</v>
       </c>
       <c r="AM3">
-        <v>0.258</v>
+        <v>0.506</v>
       </c>
       <c r="AN3">
-        <v>0.4181381551066535</v>
+        <v>0.249498997995992</v>
       </c>
       <c r="AO3">
-        <v>23.91472868217054</v>
+        <v>19.1699604743083</v>
       </c>
       <c r="AP3">
-        <v>0.1759552665124781</v>
+        <v>-0.06613226452905809</v>
       </c>
       <c r="AQ3">
-        <v>23.91472868217054</v>
+        <v>19.1699604743083</v>
       </c>
     </row>
     <row r="4">
@@ -859,121 +859,118 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.145</v>
+        <v>0.277</v>
       </c>
       <c r="E4">
-        <v>0.103</v>
+        <v>0.146</v>
       </c>
       <c r="G4">
-        <v>0.1032544378698225</v>
+        <v>0.1955445544554456</v>
       </c>
       <c r="H4">
-        <v>0.1032544378698225</v>
+        <v>0.1955445544554456</v>
       </c>
       <c r="I4">
-        <v>0.1999528509034927</v>
+        <v>0.09331683168316832</v>
       </c>
       <c r="J4">
-        <v>0.1369601858444224</v>
+        <v>0.08733894141293828</v>
       </c>
       <c r="K4">
-        <v>9.07</v>
+        <v>6.22</v>
       </c>
       <c r="L4">
-        <v>0.1341715976331361</v>
+        <v>0.07698019801980198</v>
       </c>
       <c r="M4">
-        <v>2.98</v>
+        <v>-0</v>
       </c>
       <c r="N4">
-        <v>0.0384516129032258</v>
+        <v>-0</v>
       </c>
       <c r="O4">
-        <v>0.3285556780595369</v>
+        <v>-0</v>
       </c>
       <c r="P4">
-        <v>2.98</v>
+        <v>-0</v>
       </c>
       <c r="Q4">
-        <v>0.0384516129032258</v>
+        <v>-0</v>
       </c>
       <c r="R4">
-        <v>0.3285556780595369</v>
+        <v>-0</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
       <c r="U4">
-        <v>1.88</v>
+        <v>1.62</v>
       </c>
       <c r="V4">
-        <v>0.02425806451612903</v>
+        <v>0.02307692307692308</v>
       </c>
       <c r="W4">
-        <v>0.228463476070529</v>
+        <v>0.1495192307692308</v>
       </c>
       <c r="X4">
-        <v>0.07788315684201978</v>
+        <v>0.08933775359786794</v>
       </c>
       <c r="Y4">
-        <v>0.1505803192285092</v>
+        <v>0.06018147717136282</v>
       </c>
       <c r="Z4">
-        <v>1.622623153730423</v>
+        <v>1.984819081775529</v>
       </c>
       <c r="AA4">
-        <v>0.2222347686903815</v>
+        <v>0.1733519974984749</v>
       </c>
       <c r="AB4">
-        <v>0.07716241635264867</v>
+        <v>0.0889278847286559</v>
       </c>
       <c r="AC4">
-        <v>0.1450723523377328</v>
+        <v>0.08442411276981901</v>
       </c>
       <c r="AD4">
-        <v>0.989</v>
+        <v>1.05</v>
       </c>
       <c r="AE4">
-        <v>2.360936394619473</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>3.349936394619473</v>
+        <v>1.05</v>
       </c>
       <c r="AG4">
-        <v>1.469936394619473</v>
+        <v>-0.5700000000000001</v>
       </c>
       <c r="AH4">
-        <v>0.04143400160847139</v>
+        <v>0.01473684210526316</v>
       </c>
       <c r="AI4">
-        <v>0.07452594293371373</v>
+        <v>0.02145045965270685</v>
       </c>
       <c r="AJ4">
-        <v>0.01861387335142422</v>
+        <v>-0.008186126669538992</v>
       </c>
       <c r="AK4">
-        <v>0.03412905886722194</v>
+        <v>-0.01204310162687513</v>
       </c>
       <c r="AL4">
-        <v>0.714</v>
+        <v>0.889</v>
       </c>
       <c r="AM4">
-        <v>0.714</v>
+        <v>0.889</v>
       </c>
       <c r="AN4">
-        <v>0.06687402799377916</v>
+        <v>0.1265060240963855</v>
       </c>
       <c r="AO4">
-        <v>18.34733893557423</v>
+        <v>8.481439820022498</v>
       </c>
       <c r="AP4">
-        <v>0.09939390050845039</v>
+        <v>-0.06867469879518072</v>
       </c>
       <c r="AQ4">
-        <v>18.34733893557423</v>
+        <v>8.481439820022498</v>
       </c>
     </row>
     <row r="5">
@@ -993,46 +990,46 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.102</v>
+        <v>0.09949999999999999</v>
       </c>
       <c r="E5">
-        <v>0.301</v>
+        <v>0.175</v>
       </c>
       <c r="G5">
-        <v>0.2163495419309373</v>
+        <v>0.2148397976391231</v>
       </c>
       <c r="H5">
-        <v>0.2163495419309373</v>
+        <v>0.2148397976391231</v>
       </c>
       <c r="I5">
-        <v>0.2293165221826216</v>
+        <v>0.1865092748735244</v>
       </c>
       <c r="J5">
-        <v>0.1723246218166465</v>
+        <v>0.1497725995196484</v>
       </c>
       <c r="K5">
-        <v>49.9</v>
+        <v>46.3</v>
       </c>
       <c r="L5">
-        <v>0.1758280479210712</v>
+        <v>0.1561551433389545</v>
       </c>
       <c r="M5">
-        <v>5.08</v>
+        <v>5.39</v>
       </c>
       <c r="N5">
-        <v>0.02042621632488942</v>
+        <v>0.02154276578737011</v>
       </c>
       <c r="O5">
-        <v>0.1018036072144289</v>
+        <v>0.116414686825054</v>
       </c>
       <c r="P5">
-        <v>5.08</v>
+        <v>5.39</v>
       </c>
       <c r="Q5">
-        <v>0.02042621632488942</v>
+        <v>0.02154276578737011</v>
       </c>
       <c r="R5">
-        <v>0.1018036072144289</v>
+        <v>0.116414686825054</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -1041,73 +1038,73 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>5.37</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="V5">
-        <v>0.02159227985524729</v>
+        <v>0.03349320543565149</v>
       </c>
       <c r="W5">
-        <v>0.2031758957654723</v>
+        <v>0.1671480144404332</v>
       </c>
       <c r="X5">
-        <v>0.07894337504484587</v>
+        <v>0.0913333731563838</v>
       </c>
       <c r="Y5">
-        <v>0.1242325207206264</v>
+        <v>0.0758146412840494</v>
       </c>
       <c r="Z5">
-        <v>1.11862266086484</v>
+        <v>1.038038055560418</v>
       </c>
       <c r="AA5">
-        <v>0.1927662269890644</v>
+        <v>0.155469657981605</v>
       </c>
       <c r="AB5">
-        <v>0.0772945224231187</v>
+        <v>0.08991501809503374</v>
       </c>
       <c r="AC5">
-        <v>0.1154717045659457</v>
+        <v>0.06555463988657129</v>
       </c>
       <c r="AD5">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AE5">
-        <v>2.184855022859942</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>17.18485502285994</v>
+        <v>12.5</v>
       </c>
       <c r="AG5">
-        <v>11.81485502285994</v>
+        <v>4.119999999999999</v>
       </c>
       <c r="AH5">
-        <v>0.06463269606455187</v>
+        <v>0.0475827940616673</v>
       </c>
       <c r="AI5">
-        <v>0.05636506615447146</v>
+        <v>0.03699319325244155</v>
       </c>
       <c r="AJ5">
-        <v>0.04535194364184415</v>
+        <v>0.01620006291286568</v>
       </c>
       <c r="AK5">
-        <v>0.03944664120902516</v>
+        <v>0.01250303471716436</v>
       </c>
       <c r="AL5">
-        <v>0.925</v>
+        <v>1.27</v>
       </c>
       <c r="AM5">
-        <v>0.925</v>
+        <v>1.27</v>
       </c>
       <c r="AN5">
-        <v>0.2139281486658015</v>
+        <v>0.2072968490878939</v>
       </c>
       <c r="AO5">
-        <v>69.94594594594595</v>
+        <v>43.54330708661417</v>
       </c>
       <c r="AP5">
-        <v>0.1685020041196849</v>
+        <v>0.06832504145936981</v>
       </c>
       <c r="AQ5">
-        <v>69.94594594594595</v>
+        <v>43.54330708661417</v>
       </c>
     </row>
     <row r="6">
@@ -1118,7 +1115,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Janashakthi Insurance PLC (COSE:JINS.N0000)</t>
+          <t>Amãna Takaful PLC (COSE:ATL.N0000)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1127,249 +1124,118 @@
         </is>
       </c>
       <c r="D6">
-        <v>-0.112</v>
-      </c>
-      <c r="E6">
-        <v>0.141</v>
+        <v>0.06150000000000001</v>
       </c>
       <c r="G6">
-        <v>0.1353896103896104</v>
+        <v>-0.02770833333333333</v>
       </c>
       <c r="H6">
-        <v>0.1353896103896104</v>
+        <v>-0.02770833333333333</v>
       </c>
       <c r="I6">
-        <v>0.2157373815688086</v>
+        <v>0.03104166666666667</v>
       </c>
       <c r="J6">
-        <v>0.2157373815688086</v>
+        <v>0.01552083333333333</v>
       </c>
       <c r="K6">
-        <v>12.6</v>
+        <v>-0.779</v>
       </c>
       <c r="L6">
-        <v>0.4090909090909091</v>
+        <v>-0.04057291666666667</v>
       </c>
       <c r="M6">
-        <v>-0</v>
+        <v>0.092</v>
       </c>
       <c r="N6">
-        <v>-0</v>
+        <v>0.008846153846153846</v>
       </c>
       <c r="O6">
-        <v>-0</v>
+        <v>-0.1181001283697047</v>
       </c>
       <c r="P6">
-        <v>-0</v>
+        <v>0.092</v>
       </c>
       <c r="Q6">
-        <v>-0</v>
+        <v>0.008846153846153846</v>
       </c>
       <c r="R6">
-        <v>-0</v>
+        <v>-0.1181001283697047</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
       <c r="U6">
-        <v>1.27</v>
+        <v>0.639</v>
       </c>
       <c r="V6">
-        <v>0.0312807881773399</v>
+        <v>0.06144230769230769</v>
       </c>
       <c r="W6">
-        <v>0.2896551724137931</v>
+        <v>-0.09251781472684086</v>
       </c>
       <c r="X6">
-        <v>0.08043310118277865</v>
+        <v>0.09791409736238833</v>
       </c>
       <c r="Y6">
-        <v>0.2092220712310144</v>
+        <v>-0.1904319120892292</v>
       </c>
       <c r="Z6">
-        <v>0.6880614575595483</v>
+        <v>2.211981566820277</v>
       </c>
       <c r="AA6">
-        <v>0.1484405772123149</v>
+        <v>0.03433179723502304</v>
       </c>
       <c r="AB6">
-        <v>0.07853047214850956</v>
+        <v>0.09385148089526124</v>
       </c>
       <c r="AC6">
-        <v>0.06991010506380535</v>
+        <v>-0.0595196836602382</v>
       </c>
       <c r="AD6">
-        <v>2.81</v>
+        <v>1.72</v>
       </c>
       <c r="AE6">
-        <v>1.471443238403471</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>4.281443238403471</v>
+        <v>1.72</v>
       </c>
       <c r="AG6">
-        <v>3.011443238403471</v>
+        <v>1.081</v>
       </c>
       <c r="AH6">
-        <v>0.09539450894350898</v>
+        <v>0.1419141914191419</v>
       </c>
       <c r="AI6">
-        <v>0.07553518389423539</v>
+        <v>0.1341653666146646</v>
       </c>
       <c r="AJ6">
-        <v>0.06905167577099687</v>
+        <v>0.09415556136225067</v>
       </c>
       <c r="AK6">
-        <v>0.05434695547356469</v>
+        <v>0.08874476643953699</v>
       </c>
       <c r="AL6">
-        <v>0.334</v>
+        <v>0.197</v>
       </c>
       <c r="AM6">
-        <v>0.334</v>
+        <v>0.197</v>
       </c>
       <c r="AN6">
-        <v>0.3767261026947312</v>
+        <v>2.563338301043219</v>
       </c>
       <c r="AO6">
-        <v>19.13173652694611</v>
+        <v>3.025380710659898</v>
       </c>
       <c r="AP6">
-        <v>0.4037328379680212</v>
+        <v>1.611028315946349</v>
       </c>
       <c r="AQ6">
-        <v>19.13173652694611</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Sri Lanka</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Amãna Takaful PLC (COSE:ATL.N0000)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Insurance (General)</t>
-        </is>
-      </c>
-      <c r="D7">
-        <v>0.117</v>
-      </c>
-      <c r="G7">
-        <v>0.04772727272727273</v>
-      </c>
-      <c r="H7">
-        <v>0.04772727272727273</v>
-      </c>
-      <c r="I7">
-        <v>0.0105</v>
-      </c>
-      <c r="J7">
-        <v>0.00525</v>
-      </c>
-      <c r="K7">
-        <v>-0.423</v>
-      </c>
-      <c r="L7">
-        <v>-0.01922727272727273</v>
-      </c>
-      <c r="M7">
-        <v>0.227</v>
-      </c>
-      <c r="N7">
-        <v>0.04315589353612168</v>
-      </c>
-      <c r="O7">
-        <v>-0.5366430260047281</v>
-      </c>
-      <c r="P7">
-        <v>0.227</v>
-      </c>
-      <c r="Q7">
-        <v>0.04315589353612168</v>
-      </c>
-      <c r="R7">
-        <v>-0.5366430260047281</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <v>1.31</v>
-      </c>
-      <c r="V7">
-        <v>0.2490494296577947</v>
-      </c>
-      <c r="W7">
-        <v>-0.04638157894736843</v>
-      </c>
-      <c r="X7">
-        <v>0.08834260196781267</v>
-      </c>
-      <c r="Y7">
-        <v>-0.1347241809151811</v>
-      </c>
-      <c r="Z7">
-        <v>2.31822971548999</v>
-      </c>
-      <c r="AA7">
-        <v>0.01217070600632244</v>
-      </c>
-      <c r="AB7">
-        <v>0.08131085255776323</v>
-      </c>
-      <c r="AC7">
-        <v>-0.06914014655144078</v>
-      </c>
-      <c r="AD7">
-        <v>1.57</v>
-      </c>
-      <c r="AE7">
-        <v>0</v>
-      </c>
-      <c r="AF7">
-        <v>1.57</v>
-      </c>
-      <c r="AG7">
-        <v>0.26</v>
-      </c>
-      <c r="AH7">
-        <v>0.2298682284040996</v>
-      </c>
-      <c r="AI7">
-        <v>0.1290057518488086</v>
-      </c>
-      <c r="AJ7">
-        <v>0.04710144927536233</v>
-      </c>
-      <c r="AK7">
-        <v>0.02394106813996317</v>
-      </c>
-      <c r="AL7">
-        <v>0.182</v>
-      </c>
-      <c r="AM7">
-        <v>0.182</v>
-      </c>
-      <c r="AN7">
-        <v>3.895781637717122</v>
-      </c>
-      <c r="AO7">
-        <v>1.269230769230769</v>
-      </c>
-      <c r="AP7">
-        <v>0.6451612903225806</v>
-      </c>
-      <c r="AQ7">
-        <v>1.269230769230769</v>
+        <v>3.025380710659898</v>
       </c>
     </row>
   </sheetData>
